--- a/dataset/gpt_preds_metrics_t0.8_deberta.xlsx
+++ b/dataset/gpt_preds_metrics_t0.8_deberta.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="265">
   <si>
     <t xml:space="preserve">instruction</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">VALIDATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMAN</t>
   </si>
   <si>
     <t xml:space="preserve">While walking through the forest, Emily heard a rustling sound behind her. She turned around, but nothing was there. What could it be?</t>
@@ -857,6 +860,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1027,11 +1031,11 @@
   </sheetPr>
   <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J93" activeCellId="0" sqref="J93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.63"/>
@@ -1073,18 +1077,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -1105,21 +1109,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -1140,21 +1144,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.73297107219696</v>
@@ -1175,21 +1179,21 @@
         <v>0.1999999952</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -1210,21 +1214,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0.784049868583679</v>
@@ -1245,21 +1249,21 @@
         <v>0.133333328355556</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0.705952227115631</v>
@@ -1280,21 +1284,21 @@
         <v>0.133333328355556</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -1315,21 +1319,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.876078009605408</v>
@@ -1350,21 +1354,21 @@
         <v>0.444444439444445</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -1385,21 +1389,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -1420,21 +1424,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0.870800912380219</v>
@@ -1455,21 +1459,21 @@
         <v>0.5999999952</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.975244641304016</v>
@@ -1490,21 +1494,21 @@
         <v>0.599999995</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.795708060264587</v>
@@ -1525,21 +1529,21 @@
         <v>0.352941171626298</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>1</v>
@@ -1560,21 +1564,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
@@ -1595,21 +1599,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0.585623919963837</v>
@@ -1630,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0.792068004608154</v>
@@ -1665,21 +1669,21 @@
         <v>0.3999999952</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
@@ -1700,21 +1704,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0.941864132881165</v>
@@ -1735,21 +1739,21 @@
         <v>0.705882347958478</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0.887842237949371</v>
@@ -1770,21 +1774,21 @@
         <v>0.705882347958478</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -1805,21 +1809,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0.948902070522308</v>
@@ -1840,21 +1844,21 @@
         <v>0.5999999952</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0.750499188899994</v>
@@ -1875,21 +1879,21 @@
         <v>0.29999999545</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0.950751423835754</v>
@@ -1910,21 +1914,21 @@
         <v>0.933333328355556</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.825854957103729</v>
@@ -1945,21 +1949,21 @@
         <v>0.285714281122449</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.911441326141357</v>
@@ -1980,21 +1984,21 @@
         <v>0.714285709285714</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -2015,21 +2019,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0.912308096885681</v>
@@ -2050,21 +2054,21 @@
         <v>0.769230764260355</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0.721049547195435</v>
@@ -2085,21 +2089,21 @@
         <v>0.319999995648</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>1</v>
@@ -2120,21 +2124,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>1</v>
@@ -2155,21 +2159,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0.919956624507904</v>
@@ -2190,21 +2194,21 @@
         <v>0.499999995</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0.925970077514648</v>
@@ -2225,21 +2229,21 @@
         <v>0.857142852244898</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>1</v>
@@ -2260,21 +2264,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>0.938357174396515</v>
@@ -2295,21 +2299,21 @@
         <v>0.799999995</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0.692175507545471</v>
@@ -2330,21 +2334,21 @@
         <v>0.190476186031746</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>0.965278148651123</v>
@@ -2365,21 +2369,21 @@
         <v>0.666666661728395</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>1</v>
@@ -2400,21 +2404,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>0.823021173477173</v>
@@ -2435,21 +2439,21 @@
         <v>0.181818176859504</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>0.917227506637573</v>
@@ -2470,21 +2474,21 @@
         <v>0.499999995</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>0.934632778167725</v>
@@ -2505,21 +2509,21 @@
         <v>0.909090904132231</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>0.76099967956543</v>
@@ -2540,21 +2544,21 @@
         <v>0.190476186031746</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>0.789351344108582</v>
@@ -2575,21 +2579,21 @@
         <v>0.363636358677686</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>0.786173820495606</v>
@@ -2610,21 +2614,21 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>0.788460254669189</v>
@@ -2645,21 +2649,21 @@
         <v>0.533333328355556</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>0.802947163581848</v>
@@ -2680,21 +2684,21 @@
         <v>0.526315784819945</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>0.833511352539063</v>
@@ -2715,21 +2719,21 @@
         <v>0.399999995</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>0.871553778648376</v>
@@ -2750,21 +2754,21 @@
         <v>0.363636358677686</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>0.768042504787445</v>
@@ -2785,21 +2789,21 @@
         <v>0.285714280816327</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0.824838936328888</v>
@@ -2820,21 +2824,21 @@
         <v>0.588235289273356</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0.934948086738586</v>
@@ -2855,21 +2859,21 @@
         <v>0.714285709387755</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>0.838480114936829</v>
@@ -2890,21 +2894,21 @@
         <v>0.615384610650888</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>0.802061855792999</v>
@@ -2925,21 +2929,21 @@
         <v>0.266666662222222</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>0.863520860671997</v>
@@ -2960,21 +2964,21 @@
         <v>0.181818177190083</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>0.923893392086029</v>
@@ -2995,21 +2999,21 @@
         <v>0.599999995</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>1</v>
@@ -3030,21 +3034,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>1</v>
@@ -3065,21 +3069,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>0.907103419303894</v>
@@ -3100,21 +3104,21 @@
         <v>0.399999995022222</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>1</v>
@@ -3135,21 +3139,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>0.787594318389893</v>
@@ -3170,21 +3174,21 @@
         <v>0.235294112802768</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>1</v>
@@ -3205,21 +3209,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>0.911753356456757</v>
@@ -3240,21 +3244,21 @@
         <v>0.666666661805556</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>1</v>
@@ -3275,21 +3279,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>0.99999988079071</v>
@@ -3310,21 +3314,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>0.763464093208313</v>
@@ -3345,21 +3349,21 @@
         <v>0.23529411349481</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>1</v>
@@ -3380,21 +3384,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0.975301921367645</v>
@@ -3415,21 +3419,21 @@
         <v>0.95238094739229</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>0.838119566440582</v>
@@ -3450,21 +3454,21 @@
         <v>0.571428566712018</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>0.80269718170166</v>
@@ -3485,21 +3489,21 @@
         <v>0.285714280714286</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>0.830148935317993</v>
@@ -3520,21 +3524,21 @@
         <v>0.526315784819945</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>1</v>
@@ -3555,21 +3559,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>1</v>
@@ -3590,21 +3594,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>0.996026039123535</v>
@@ -3625,21 +3629,21 @@
         <v>0.799999995</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>0.650847792625427</v>
@@ -3660,21 +3664,21 @@
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>1</v>
@@ -3695,21 +3699,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>0.867164850234985</v>
@@ -3730,21 +3734,21 @@
         <v>0.714285709387755</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>0.683219790458679</v>
@@ -3765,21 +3769,21 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>0.646813273429871</v>
@@ -3800,21 +3804,21 @@
         <v>0.0999999968000001</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>0.739608287811279</v>
@@ -3835,21 +3839,21 @@
         <v>0.142857137857143</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>0.87305098772049</v>
@@ -3870,21 +3874,21 @@
         <v>0.499999995</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>0.64396595954895</v>
@@ -3905,21 +3909,21 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>0.77809751033783</v>
@@ -3940,21 +3944,21 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>0.841678977012634</v>
@@ -3975,21 +3979,21 @@
         <v>0.285714280714286</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>1</v>
@@ -4010,21 +4014,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>0.845360994338989</v>
@@ -4045,21 +4049,21 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>0.720937371253967</v>
@@ -4080,21 +4084,21 @@
         <v>0.428571423979592</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>0.823857367038727</v>
@@ -4115,21 +4119,21 @@
         <v>0.3999999958</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>0.775995135307312</v>
@@ -4150,21 +4154,21 @@
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>0.782692074775696</v>
@@ -4185,21 +4189,21 @@
         <v>0.181818176859504</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>0.84641569852829</v>
@@ -4220,21 +4224,21 @@
         <v>0.374999995078125</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0.643714129924774</v>
@@ -4255,21 +4259,21 @@
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>0.851962924003601</v>
@@ -4290,21 +4294,21 @@
         <v>0.666666661805556</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>1</v>
@@ -4325,21 +4329,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>0.7013258934021</v>
@@ -4360,21 +4364,21 @@
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>1</v>
@@ -4395,21 +4399,21 @@
         <v>0.999999995</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>0.996026039123535</v>
@@ -4430,21 +4434,21 @@
         <v>0.799999995</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>0.6543328166008</v>
@@ -4465,21 +4469,21 @@
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>1</v>
@@ -4500,10 +4504,10 @@
         <v>0.999999995</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
